--- a/biology/Zoologie/Afrasura_pallescens/Afrasura_pallescens.xlsx
+++ b/biology/Zoologie/Afrasura_pallescens/Afrasura_pallescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrasura pallescens est une espèce de papillons de nuit de la famille des Erebidae endémique à la Guinée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrasura pallescens est une espèce de papillons de nuit de la famille des Erebidae endémique à la Guinée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrasura pallescens présente une envergure de 21 mm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrasura pallescens présente une envergure de 21 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Afrasura pallescens Antonio Durante (d), 2009[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Afrasura pallescens Antonio Durante (d), 2009,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, dérivée du latin palesco, « qui devient pâle », fait référence à l'« effet fané » de cette espèce[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, dérivée du latin palesco, « qui devient pâle », fait référence à l'« effet fané » de cette espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Antonio Durante, « Revision of the Afrotropical species of Asura Walker, 1854 (Lepidoptera: Arctiidae, Lithosiinae), with the description of a new genus », Zootaxa, Magnolia Press (d), vol. 2280, no 1,‎ 3 novembre 2009, p. 27-52 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2280.1.2, lire en ligne)</t>
         </is>
